--- a/biology/Botanique/Eriochloa/Eriochloa.xlsx
+++ b/biology/Botanique/Eriochloa/Eriochloa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriochloa est un genre  de plantes monocotylédones de la  famille des Poaceae, sous-famille des Panicoideae, originaire des régions subtropicales, qui regroupe une trentaine d'espèces.
 Ce sont des plantes herbacées, annuelles ou vivaces, stolonifères ou cespiteuses, dont les tiges (chaumes) peuvent atteindre de 30 à 170 cm de long. Certaines espèces de ce genre ont une importance économique, soit comme plantes fourragères, en particulier Eriochloa polystachya, soit comme mauvaises herbes des cultures.
@@ -512,11 +524,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La genre Eriochloa a été décrit par le botaniste allemand Karl Sigismund Kunth et publié en 1816 dans son Nova Genera et Species Plantarum (quarto ed.) 1: 94, t. 30, 31[2].  
-Liste des espèces
-Selon The Plant List            (13 juin 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La genre Eriochloa a été décrit par le botaniste allemand Karl Sigismund Kunth et publié en 1816 dans son Nova Genera et Species Plantarum (quarto ed.) 1: 94, t. 30, 31.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eriochloa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eriochloa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (13 juin 2017) :
 Eriochloa acuminata (J.Presl) Kunth
 Eriochloa aristata Vasey
 Eriochloa australiensis Stapf &amp; Thell.
@@ -552,8 +601,43 @@
 Eriochloa tridentata (Trin.) Kuhlm.
 Eriochloa villosa (Thunb.) Kunth
 Eriochloa weberbaueri Mez
-Synonymes
-Selon GRIN[4] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eriochloa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eriochloa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GRIN :
 Aglycia Steud., nom. inval.
 Alycia Steud., nom. inval.
 Glandiloba (Raf.) Steud., nom. inval.
